--- a/DisenoCuneta/R.HydroTools.DisenoCunetaGIS.xlsx
+++ b/DisenoCuneta/R.HydroTools.DisenoCunetaGIS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.HydroTools\DisenoCuneta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010D8D0-8EA4-4B54-BD8D-216442660AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F1D15E-7DD3-4A21-AF70-951B41919230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16371" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEMGIS" sheetId="2" r:id="rId1"/>
-    <sheet name="DEMGenerator" sheetId="1" r:id="rId2"/>
+    <sheet name="DEMGenerator" sheetId="1" r:id="rId1"/>
+    <sheet name="DEMGIS" sheetId="2" r:id="rId2"/>
     <sheet name="Flow" sheetId="4" r:id="rId3"/>
     <sheet name="CourantNumber" sheetId="5" r:id="rId4"/>
     <sheet name="Ref" sheetId="3" r:id="rId5"/>
@@ -895,21 +895,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,6 +912,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2058,301 +2058,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2499999999999999E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2500000000000001E-2</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2500000000000003E-2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2499999999999998E-2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2499999999999995E-2</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2500000000000004E-2</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2499999999999999E-2</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10249999999999999</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1125</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1225</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13250000000000001</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14249999999999999</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1525</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16250000000000001</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17249999999999999</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1825</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1925</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20250000000000001</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2225</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23250000000000001</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.24249999999999999</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,252 +4411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846BFD8-8711-4112-8823-EE626756B03F}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="24.3046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="2"/>
-    <col min="3" max="4" width="12.3046875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.84375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="str">
-        <f>DEMGenerator!B19</f>
-        <v>Location</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <f>DEMGenerator!C19</f>
-        <v>Node</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <f>DEMGenerator!D19</f>
-        <v>CX</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <f>DEMGenerator!E19</f>
-        <v>CY</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <f>DEMGenerator!F19</f>
-        <v>CZ</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="str">
-        <f>DEMGenerator!B20</f>
-        <v>Corner NW</v>
-      </c>
-      <c r="B2" s="2">
-        <f>DEMGenerator!C20</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <f>DEMGenerator!D20</f>
-        <v>5000000</v>
-      </c>
-      <c r="D2" s="2">
-        <f>DEMGenerator!E20</f>
-        <v>2000000</v>
-      </c>
-      <c r="E2" s="2">
-        <f>DEMGenerator!F20</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
-        <f>DEMGenerator!B21</f>
-        <v>Center top NN</v>
-      </c>
-      <c r="B3" s="2">
-        <f>DEMGenerator!C21</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <f>DEMGenerator!D21</f>
-        <v>5000005</v>
-      </c>
-      <c r="D3" s="2">
-        <f>DEMGenerator!E21</f>
-        <v>2000000</v>
-      </c>
-      <c r="E3" s="2">
-        <f>DEMGenerator!F21</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
-        <f>DEMGenerator!B22</f>
-        <v>Corner NE</v>
-      </c>
-      <c r="B4" s="2">
-        <f>DEMGenerator!C22</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <f>DEMGenerator!D22</f>
-        <v>5000010</v>
-      </c>
-      <c r="D4" s="2">
-        <f>DEMGenerator!E22</f>
-        <v>2000000</v>
-      </c>
-      <c r="E4" s="2">
-        <f>DEMGenerator!F22</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="str">
-        <f>DEMGenerator!B23</f>
-        <v>Center left side WW</v>
-      </c>
-      <c r="B5" s="2">
-        <f>DEMGenerator!C23</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <f>DEMGenerator!D23</f>
-        <v>5000000</v>
-      </c>
-      <c r="D5" s="2">
-        <f>DEMGenerator!E23</f>
-        <v>1999990</v>
-      </c>
-      <c r="E5" s="2">
-        <f>DEMGenerator!F23</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="str">
-        <f>DEMGenerator!B24</f>
-        <v>Center center</v>
-      </c>
-      <c r="B6" s="2">
-        <f>DEMGenerator!C24</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <f>DEMGenerator!D24</f>
-        <v>5000005</v>
-      </c>
-      <c r="D6" s="2">
-        <f>DEMGenerator!E24</f>
-        <v>1999990</v>
-      </c>
-      <c r="E6" s="2">
-        <f>DEMGenerator!F24</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="str">
-        <f>DEMGenerator!B25</f>
-        <v>Center right side EE</v>
-      </c>
-      <c r="B7" s="2">
-        <f>DEMGenerator!C25</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <f>DEMGenerator!D25</f>
-        <v>5000010</v>
-      </c>
-      <c r="D7" s="2">
-        <f>DEMGenerator!E25</f>
-        <v>1999990</v>
-      </c>
-      <c r="E7" s="2">
-        <f>DEMGenerator!F25</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="str">
-        <f>DEMGenerator!B26</f>
-        <v>Corner SW</v>
-      </c>
-      <c r="B8" s="2">
-        <f>DEMGenerator!C26</f>
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <f>DEMGenerator!D26</f>
-        <v>5000000</v>
-      </c>
-      <c r="D8" s="2">
-        <f>DEMGenerator!E26</f>
-        <v>1999980</v>
-      </c>
-      <c r="E8" s="2">
-        <f>DEMGenerator!F26</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="str">
-        <f>DEMGenerator!B27</f>
-        <v>Center bottom SS</v>
-      </c>
-      <c r="B9" s="2">
-        <f>DEMGenerator!C27</f>
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <f>DEMGenerator!D27</f>
-        <v>5000005</v>
-      </c>
-      <c r="D9" s="2">
-        <f>DEMGenerator!E27</f>
-        <v>1999980</v>
-      </c>
-      <c r="E9" s="2">
-        <f>DEMGenerator!F27</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="str">
-        <f>DEMGenerator!B28</f>
-        <v>Corner SE</v>
-      </c>
-      <c r="B10" s="2">
-        <f>DEMGenerator!C28</f>
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <f>DEMGenerator!D28</f>
-        <v>5000010</v>
-      </c>
-      <c r="D10" s="2">
-        <f>DEMGenerator!E28</f>
-        <v>1999980</v>
-      </c>
-      <c r="E10" s="2">
-        <f>DEMGenerator!F28</f>
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -4927,12 +4686,12 @@
       <c r="B15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="51" t="str">
+      <c r="C15" s="68" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("HDitch",C9,E9,C10,E10,C11,E11,C12,E12,C13,E13),".","")</f>
         <v>HDitchL20W10D1CSlp01SSlp02</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="48" t="s">
@@ -5192,9 +4951,9 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
@@ -5270,18 +5029,33 @@
       <c r="D43" s="45"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="45">
+        <v>1</v>
+      </c>
+      <c r="C44" s="45">
+        <v>0</v>
+      </c>
+      <c r="D44" s="45">
+        <v>98.792000000000002</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="45">
+        <v>47</v>
+      </c>
+      <c r="C45" s="45">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="D45" s="45">
+        <v>97.855999999999995</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
+      <c r="C46" s="46">
+        <f>(D44-D45)/C45</f>
+        <v>0.19626756133361439</v>
+      </c>
       <c r="D46" s="45"/>
     </row>
   </sheetData>
@@ -5294,12 +5068,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846BFD8-8711-4112-8823-EE626756B03F}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.3046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="2"/>
+    <col min="3" max="4" width="12.3046875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.84375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="str">
+        <f>DEMGenerator!B19</f>
+        <v>Location</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>DEMGenerator!C19</f>
+        <v>Node</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>DEMGenerator!D19</f>
+        <v>CX</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>DEMGenerator!E19</f>
+        <v>CY</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>DEMGenerator!F19</f>
+        <v>CZ</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>DEMGenerator!B20</f>
+        <v>Corner NW</v>
+      </c>
+      <c r="B2" s="2">
+        <f>DEMGenerator!C20</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <f>DEMGenerator!D20</f>
+        <v>5000000</v>
+      </c>
+      <c r="D2" s="2">
+        <f>DEMGenerator!E20</f>
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="2">
+        <f>DEMGenerator!F20</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f>DEMGenerator!B21</f>
+        <v>Center top NN</v>
+      </c>
+      <c r="B3" s="2">
+        <f>DEMGenerator!C21</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>DEMGenerator!D21</f>
+        <v>5000005</v>
+      </c>
+      <c r="D3" s="2">
+        <f>DEMGenerator!E21</f>
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="2">
+        <f>DEMGenerator!F21</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>DEMGenerator!B22</f>
+        <v>Corner NE</v>
+      </c>
+      <c r="B4" s="2">
+        <f>DEMGenerator!C22</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <f>DEMGenerator!D22</f>
+        <v>5000010</v>
+      </c>
+      <c r="D4" s="2">
+        <f>DEMGenerator!E22</f>
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="2">
+        <f>DEMGenerator!F22</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>DEMGenerator!B23</f>
+        <v>Center left side WW</v>
+      </c>
+      <c r="B5" s="2">
+        <f>DEMGenerator!C23</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>DEMGenerator!D23</f>
+        <v>5000000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>DEMGenerator!E23</f>
+        <v>1999990</v>
+      </c>
+      <c r="E5" s="2">
+        <f>DEMGenerator!F23</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f>DEMGenerator!B24</f>
+        <v>Center center</v>
+      </c>
+      <c r="B6" s="2">
+        <f>DEMGenerator!C24</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>DEMGenerator!D24</f>
+        <v>5000005</v>
+      </c>
+      <c r="D6" s="2">
+        <f>DEMGenerator!E24</f>
+        <v>1999990</v>
+      </c>
+      <c r="E6" s="2">
+        <f>DEMGenerator!F24</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f>DEMGenerator!B25</f>
+        <v>Center right side EE</v>
+      </c>
+      <c r="B7" s="2">
+        <f>DEMGenerator!C25</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f>DEMGenerator!D25</f>
+        <v>5000010</v>
+      </c>
+      <c r="D7" s="2">
+        <f>DEMGenerator!E25</f>
+        <v>1999990</v>
+      </c>
+      <c r="E7" s="2">
+        <f>DEMGenerator!F25</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f>DEMGenerator!B26</f>
+        <v>Corner SW</v>
+      </c>
+      <c r="B8" s="2">
+        <f>DEMGenerator!C26</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <f>DEMGenerator!D26</f>
+        <v>5000000</v>
+      </c>
+      <c r="D8" s="2">
+        <f>DEMGenerator!E26</f>
+        <v>1999980</v>
+      </c>
+      <c r="E8" s="2">
+        <f>DEMGenerator!F26</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f>DEMGenerator!B27</f>
+        <v>Center bottom SS</v>
+      </c>
+      <c r="B9" s="2">
+        <f>DEMGenerator!C27</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <f>DEMGenerator!D27</f>
+        <v>5000005</v>
+      </c>
+      <c r="D9" s="2">
+        <f>DEMGenerator!E27</f>
+        <v>1999980</v>
+      </c>
+      <c r="E9" s="2">
+        <f>DEMGenerator!F27</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f>DEMGenerator!B28</f>
+        <v>Corner SE</v>
+      </c>
+      <c r="B10" s="2">
+        <f>DEMGenerator!C28</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <f>DEMGenerator!D28</f>
+        <v>5000010</v>
+      </c>
+      <c r="D10" s="2">
+        <f>DEMGenerator!E28</f>
+        <v>1999980</v>
+      </c>
+      <c r="E10" s="2">
+        <f>DEMGenerator!F28</f>
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E74792E-0B2F-443F-A4E1-2E6DC959BF59}">
   <dimension ref="B2:G967"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8:D107"/>
     </sheetView>
   </sheetViews>
@@ -5345,7 +5360,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="25">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E4" s="32">
         <v>0.05</v>
@@ -5364,7 +5379,7 @@
       </c>
       <c r="D5" s="31">
         <f>D4*1000</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="29">
         <f>E4*1000</f>
@@ -5426,7 +5441,7 @@
       </c>
       <c r="D9" s="38">
         <f t="shared" ref="D9:D72" si="0">$D$4*B9</f>
-        <v>2.5000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="41">
         <f t="shared" ref="E9:E72" si="1">E$4*$B9</f>
@@ -5442,7 +5457,7 @@
       </c>
       <c r="D10" s="38">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="41">
         <f t="shared" si="1"/>
@@ -5458,7 +5473,7 @@
       </c>
       <c r="D11" s="38">
         <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E11" s="41">
         <f t="shared" si="1"/>
@@ -5474,7 +5489,7 @@
       </c>
       <c r="D12" s="38">
         <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E12" s="41">
         <f t="shared" si="1"/>
@@ -5490,7 +5505,7 @@
       </c>
       <c r="D13" s="38">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E13" s="41">
         <f t="shared" si="1"/>
@@ -5506,7 +5521,7 @@
       </c>
       <c r="D14" s="38">
         <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
+        <v>0.21</v>
       </c>
       <c r="E14" s="41">
         <f t="shared" si="1"/>
@@ -5522,7 +5537,7 @@
       </c>
       <c r="D15" s="38">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="41">
         <f t="shared" si="1"/>
@@ -5538,7 +5553,7 @@
       </c>
       <c r="D16" s="38">
         <f t="shared" si="0"/>
-        <v>7.2499999999999995E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E16" s="41">
         <f t="shared" si="1"/>
@@ -5554,7 +5569,7 @@
       </c>
       <c r="D17" s="38">
         <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.33</v>
       </c>
       <c r="E17" s="41">
         <f t="shared" si="1"/>
@@ -5570,7 +5585,7 @@
       </c>
       <c r="D18" s="38">
         <f t="shared" si="0"/>
-        <v>9.2499999999999999E-2</v>
+        <v>0.37</v>
       </c>
       <c r="E18" s="41">
         <f t="shared" si="1"/>
@@ -5586,7 +5601,7 @@
       </c>
       <c r="D19" s="38">
         <f t="shared" si="0"/>
-        <v>0.10249999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="E19" s="41">
         <f t="shared" si="1"/>
@@ -5602,7 +5617,7 @@
       </c>
       <c r="D20" s="38">
         <f t="shared" si="0"/>
-        <v>0.1125</v>
+        <v>0.45</v>
       </c>
       <c r="E20" s="41">
         <f t="shared" si="1"/>
@@ -5618,7 +5633,7 @@
       </c>
       <c r="D21" s="38">
         <f t="shared" si="0"/>
-        <v>0.1225</v>
+        <v>0.49</v>
       </c>
       <c r="E21" s="41">
         <f t="shared" si="1"/>
@@ -5634,7 +5649,7 @@
       </c>
       <c r="D22" s="38">
         <f t="shared" si="0"/>
-        <v>0.13250000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="E22" s="41">
         <f t="shared" si="1"/>
@@ -5650,7 +5665,7 @@
       </c>
       <c r="D23" s="38">
         <f t="shared" si="0"/>
-        <v>0.14249999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E23" s="41">
         <f t="shared" si="1"/>
@@ -5666,7 +5681,7 @@
       </c>
       <c r="D24" s="38">
         <f t="shared" si="0"/>
-        <v>0.1525</v>
+        <v>0.61</v>
       </c>
       <c r="E24" s="41">
         <f t="shared" si="1"/>
@@ -5682,7 +5697,7 @@
       </c>
       <c r="D25" s="38">
         <f t="shared" si="0"/>
-        <v>0.16250000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E25" s="41">
         <f t="shared" si="1"/>
@@ -5698,7 +5713,7 @@
       </c>
       <c r="D26" s="38">
         <f t="shared" si="0"/>
-        <v>0.17249999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="E26" s="41">
         <f t="shared" si="1"/>
@@ -5714,7 +5729,7 @@
       </c>
       <c r="D27" s="38">
         <f t="shared" si="0"/>
-        <v>0.1825</v>
+        <v>0.73</v>
       </c>
       <c r="E27" s="41">
         <f t="shared" si="1"/>
@@ -5730,7 +5745,7 @@
       </c>
       <c r="D28" s="38">
         <f t="shared" si="0"/>
-        <v>0.1925</v>
+        <v>0.77</v>
       </c>
       <c r="E28" s="41">
         <f t="shared" si="1"/>
@@ -5746,7 +5761,7 @@
       </c>
       <c r="D29" s="38">
         <f t="shared" si="0"/>
-        <v>0.20250000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="E29" s="41">
         <f t="shared" si="1"/>
@@ -5762,7 +5777,7 @@
       </c>
       <c r="D30" s="38">
         <f t="shared" si="0"/>
-        <v>0.21249999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="E30" s="41">
         <f t="shared" si="1"/>
@@ -5778,7 +5793,7 @@
       </c>
       <c r="D31" s="38">
         <f t="shared" si="0"/>
-        <v>0.2225</v>
+        <v>0.89</v>
       </c>
       <c r="E31" s="41">
         <f t="shared" si="1"/>
@@ -5794,7 +5809,7 @@
       </c>
       <c r="D32" s="38">
         <f t="shared" si="0"/>
-        <v>0.23250000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E32" s="41">
         <f t="shared" si="1"/>
@@ -5810,7 +5825,7 @@
       </c>
       <c r="D33" s="38">
         <f t="shared" si="0"/>
-        <v>0.24249999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E33" s="41">
         <f t="shared" si="1"/>
@@ -5826,7 +5841,7 @@
       </c>
       <c r="D34" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E34" s="41">
         <f t="shared" si="1"/>
@@ -5842,7 +5857,7 @@
       </c>
       <c r="D35" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E35" s="41">
         <f t="shared" si="1"/>
@@ -5858,7 +5873,7 @@
       </c>
       <c r="D36" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E36" s="41">
         <f t="shared" si="1"/>
@@ -5874,7 +5889,7 @@
       </c>
       <c r="D37" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E37" s="41">
         <f t="shared" si="1"/>
@@ -5890,7 +5905,7 @@
       </c>
       <c r="D38" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E38" s="41">
         <f t="shared" si="1"/>
@@ -5906,7 +5921,7 @@
       </c>
       <c r="D39" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
@@ -5922,7 +5937,7 @@
       </c>
       <c r="D40" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
@@ -5938,7 +5953,7 @@
       </c>
       <c r="D41" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
@@ -5954,7 +5969,7 @@
       </c>
       <c r="D42" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
@@ -5970,7 +5985,7 @@
       </c>
       <c r="D43" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
@@ -5986,7 +6001,7 @@
       </c>
       <c r="D44" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
@@ -6002,7 +6017,7 @@
       </c>
       <c r="D45" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
@@ -6018,7 +6033,7 @@
       </c>
       <c r="D46" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
@@ -6034,7 +6049,7 @@
       </c>
       <c r="D47" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
@@ -6050,7 +6065,7 @@
       </c>
       <c r="D48" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
@@ -6066,7 +6081,7 @@
       </c>
       <c r="D49" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
@@ -6082,7 +6097,7 @@
       </c>
       <c r="D50" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
@@ -6098,7 +6113,7 @@
       </c>
       <c r="D51" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
@@ -6114,7 +6129,7 @@
       </c>
       <c r="D52" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
@@ -6130,7 +6145,7 @@
       </c>
       <c r="D53" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
@@ -6146,7 +6161,7 @@
       </c>
       <c r="D54" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
@@ -6162,7 +6177,7 @@
       </c>
       <c r="D55" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
@@ -6178,7 +6193,7 @@
       </c>
       <c r="D56" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
@@ -6194,7 +6209,7 @@
       </c>
       <c r="D57" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
@@ -6210,7 +6225,7 @@
       </c>
       <c r="D58" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
@@ -6226,7 +6241,7 @@
       </c>
       <c r="D59" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
@@ -6242,7 +6257,7 @@
       </c>
       <c r="D60" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
@@ -6258,7 +6273,7 @@
       </c>
       <c r="D61" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
@@ -6274,7 +6289,7 @@
       </c>
       <c r="D62" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
@@ -6290,7 +6305,7 @@
       </c>
       <c r="D63" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
@@ -6306,7 +6321,7 @@
       </c>
       <c r="D64" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
@@ -6322,7 +6337,7 @@
       </c>
       <c r="D65" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
@@ -6338,7 +6353,7 @@
       </c>
       <c r="D66" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
@@ -6354,7 +6369,7 @@
       </c>
       <c r="D67" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
@@ -6370,7 +6385,7 @@
       </c>
       <c r="D68" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
@@ -6386,7 +6401,7 @@
       </c>
       <c r="D69" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
@@ -6402,7 +6417,7 @@
       </c>
       <c r="D70" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E70" s="41">
         <f t="shared" si="1"/>
@@ -6418,7 +6433,7 @@
       </c>
       <c r="D71" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E71" s="41">
         <f t="shared" si="1"/>
@@ -6434,7 +6449,7 @@
       </c>
       <c r="D72" s="38">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E72" s="41">
         <f t="shared" si="1"/>
@@ -6450,7 +6465,7 @@
       </c>
       <c r="D73" s="38">
         <f t="shared" ref="D73:D107" si="2">$D$4*B73</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E73" s="41">
         <f t="shared" ref="E73:E107" si="3">E$4*$B73</f>
@@ -6466,7 +6481,7 @@
       </c>
       <c r="D74" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E74" s="41">
         <f t="shared" si="3"/>
@@ -6482,7 +6497,7 @@
       </c>
       <c r="D75" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E75" s="41">
         <f t="shared" si="3"/>
@@ -6498,7 +6513,7 @@
       </c>
       <c r="D76" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E76" s="41">
         <f t="shared" si="3"/>
@@ -6514,7 +6529,7 @@
       </c>
       <c r="D77" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E77" s="41">
         <f t="shared" si="3"/>
@@ -6530,7 +6545,7 @@
       </c>
       <c r="D78" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E78" s="41">
         <f t="shared" si="3"/>
@@ -6546,7 +6561,7 @@
       </c>
       <c r="D79" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E79" s="41">
         <f t="shared" si="3"/>
@@ -6562,7 +6577,7 @@
       </c>
       <c r="D80" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E80" s="41">
         <f t="shared" si="3"/>
@@ -6578,7 +6593,7 @@
       </c>
       <c r="D81" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E81" s="41">
         <f t="shared" si="3"/>
@@ -6594,7 +6609,7 @@
       </c>
       <c r="D82" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E82" s="41">
         <f t="shared" si="3"/>
@@ -6610,7 +6625,7 @@
       </c>
       <c r="D83" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E83" s="41">
         <f t="shared" si="3"/>
@@ -6626,7 +6641,7 @@
       </c>
       <c r="D84" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E84" s="41">
         <f t="shared" si="3"/>
@@ -6642,7 +6657,7 @@
       </c>
       <c r="D85" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E85" s="41">
         <f t="shared" si="3"/>
@@ -6658,7 +6673,7 @@
       </c>
       <c r="D86" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E86" s="41">
         <f t="shared" si="3"/>
@@ -6674,7 +6689,7 @@
       </c>
       <c r="D87" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E87" s="41">
         <f t="shared" si="3"/>
@@ -6690,7 +6705,7 @@
       </c>
       <c r="D88" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E88" s="41">
         <f t="shared" si="3"/>
@@ -6706,7 +6721,7 @@
       </c>
       <c r="D89" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E89" s="41">
         <f t="shared" si="3"/>
@@ -6722,7 +6737,7 @@
       </c>
       <c r="D90" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E90" s="41">
         <f t="shared" si="3"/>
@@ -6738,7 +6753,7 @@
       </c>
       <c r="D91" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E91" s="41">
         <f t="shared" si="3"/>
@@ -6754,7 +6769,7 @@
       </c>
       <c r="D92" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E92" s="41">
         <f t="shared" si="3"/>
@@ -6770,7 +6785,7 @@
       </c>
       <c r="D93" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E93" s="41">
         <f t="shared" si="3"/>
@@ -6786,7 +6801,7 @@
       </c>
       <c r="D94" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E94" s="41">
         <f t="shared" si="3"/>
@@ -6802,7 +6817,7 @@
       </c>
       <c r="D95" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E95" s="41">
         <f t="shared" si="3"/>
@@ -6818,7 +6833,7 @@
       </c>
       <c r="D96" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E96" s="41">
         <f t="shared" si="3"/>
@@ -6834,7 +6849,7 @@
       </c>
       <c r="D97" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E97" s="41">
         <f t="shared" si="3"/>
@@ -6850,7 +6865,7 @@
       </c>
       <c r="D98" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E98" s="41">
         <f t="shared" si="3"/>
@@ -6866,7 +6881,7 @@
       </c>
       <c r="D99" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E99" s="41">
         <f t="shared" si="3"/>
@@ -6882,7 +6897,7 @@
       </c>
       <c r="D100" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E100" s="41">
         <f t="shared" si="3"/>
@@ -6898,7 +6913,7 @@
       </c>
       <c r="D101" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E101" s="41">
         <f t="shared" si="3"/>
@@ -6914,7 +6929,7 @@
       </c>
       <c r="D102" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E102" s="41">
         <f t="shared" si="3"/>
@@ -6930,7 +6945,7 @@
       </c>
       <c r="D103" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E103" s="41">
         <f t="shared" si="3"/>
@@ -6946,7 +6961,7 @@
       </c>
       <c r="D104" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E104" s="41">
         <f t="shared" si="3"/>
@@ -6962,7 +6977,7 @@
       </c>
       <c r="D105" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E105" s="41">
         <f t="shared" si="3"/>
@@ -6978,7 +6993,7 @@
       </c>
       <c r="D106" s="38">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E106" s="41">
         <f t="shared" si="3"/>
@@ -6994,7 +7009,7 @@
       </c>
       <c r="D107" s="43">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E107" s="44">
         <f t="shared" si="3"/>
@@ -11311,8 +11326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6128A35-0FB2-4DE7-8872-275CDE127ABE}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -11322,10 +11337,10 @@
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.69140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.69140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.69140625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" style="49" customWidth="1"/>
     <col min="7" max="7" width="101.3828125" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.69140625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="49" customWidth="1"/>
     <col min="10" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
@@ -11338,92 +11353,92 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="53" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="55">
         <v>5.2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="55">
         <v>0.06</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="56"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="55">
         <v>0.1</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="55">
         <v>0.2</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="59">
         <f>C4*C6/C7</f>
         <v>2.6</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="D8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="63">
         <f>C5*C6/C7</f>
         <v>0.03</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
